--- a/projectPaperWork/ProjectTimeLineGame.xlsx
+++ b/projectPaperWork/ProjectTimeLineGame.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\interACTIVE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\interACTIVE\projectPaperWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541F5DB0-025C-42DB-804C-7C1486BD085E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDDE9A4-0863-4EAB-98A4-BFF2B1F0B684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,11 +148,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,8 +160,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,15 +446,15 @@
   <dimension ref="E6:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="E6" sqref="E6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="6"/>
-    <col min="5" max="5" width="17" style="6" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="17" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="6" spans="5:16" ht="31.5" x14ac:dyDescent="0.5">
@@ -497,115 +497,115 @@
       </c>
     </row>
     <row r="9" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="K9" s="6" t="e">
+      <c r="K9" s="3" t="e">
         <f>J8-G8</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="5:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <f t="shared" ref="K10:K19" si="0">J9-G9</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="2"/>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E13" s="2"/>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="3">
         <f>J11-G11</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E14" s="2"/>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="2"/>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E16" s="2"/>
-      <c r="K16" s="6">
+      <c r="E16" s="6"/>
+      <c r="K16" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E17" s="2"/>
-      <c r="K17" s="6">
+      <c r="E17" s="6"/>
+      <c r="K17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E18" s="2"/>
-      <c r="K18" s="6">
+      <c r="E18" s="6"/>
+      <c r="K18" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="K19" s="6">
+      <c r="K19" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="2"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="2"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E23" s="2"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E24" s="2"/>
+      <c r="E24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
